--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2534157.494799464</v>
+        <v>2531780.867852099</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.233640963313941</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>286.9977044806038</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>103.9419816319485</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2705165323381</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>220.8789552701359</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>345.7367844058015</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>176.4108372123237</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>116.8696022052335</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>139.2262475794328</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>73.2475687168849</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>50.84815278861496</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>103.258801432719</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517594</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>35.55160172423379</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890389</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>38.61213096654735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>51.36569740310337</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>133.8107367464754</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>41.02686156550217</v>
+        <v>18.70843787977265</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187874</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>283.9893080390622</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135853</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>140.7058473537592</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>880.6454412161679</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>880.6454412161679</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>522.3797426094175</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>136.5914900111732</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4361,19 +4361,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1607.934920996351</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.78477319198</v>
+        <v>1234.469162735271</v>
       </c>
       <c r="Y2" t="n">
-        <v>880.6454412161679</v>
+        <v>844.329830759459</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057876</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,16 +4410,16 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>343.6260600182041</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>638.3296170496759</v>
       </c>
       <c r="M3" t="n">
-        <v>970.4000522258383</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
         <v>1991.864164601822</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1531.454219436166</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1308.475738630901</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1308.475738630901</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1308.475738630901</v>
+        <v>859.5709967387896</v>
       </c>
       <c r="W4" t="n">
-        <v>1308.475738630901</v>
+        <v>570.1538267018291</v>
       </c>
       <c r="X4" t="n">
-        <v>1308.475738630901</v>
+        <v>570.1538267018291</v>
       </c>
       <c r="Y4" t="n">
-        <v>1087.683159487371</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505.192799657037</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C5" t="n">
-        <v>136.2302827166252</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="D5" t="n">
-        <v>136.2302827166252</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,16 +4562,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4580,37 +4580,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2339.229272571735</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V5" t="n">
-        <v>2008.166385228164</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W5" t="n">
-        <v>1655.39772995805</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="X5" t="n">
-        <v>1281.931971696971</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="Y5" t="n">
-        <v>891.7926397211588</v>
+        <v>1295.021456295685</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>551.2876347907475</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>845.9911918222193</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1209.25321078144</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.1760210978775</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>516.2398381699707</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>767.0814070827663</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>767.0814070827663</v>
       </c>
       <c r="X7" t="n">
-        <v>685.1760210978775</v>
+        <v>767.0814070827663</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.1760210978775</v>
+        <v>546.2888279392362</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4808,10 +4808,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4835,19 +4835,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1793.919728214994</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446891756898</v>
@@ -4875,7 +4875,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4884,25 +4884,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>458.7060632252732</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004312</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
         <v>219.2332512597245</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1585.084349580947</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1388.455601740808</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1165.477120935544</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>876.3587834393812</v>
       </c>
       <c r="V10" t="n">
-        <v>1532.144300445488</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="W10" t="n">
-        <v>1242.727130408528</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="X10" t="n">
-        <v>1014.73757951051</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>400.8817160899642</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5021,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C13" t="n">
-        <v>741.8431516380886</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D13" t="n">
-        <v>591.7265122257528</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>443.8134186433597</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>296.9234711454493</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>129.7273718603292</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138394</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,16 +5829,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
         <v>317.6151975578602</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
         <v>388.6197041282753</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1026.887310050512</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1654.485273605118</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2311.800723230285</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2092.199258253227</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1803.124031597425</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1548.439543391538</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1259.022373354577</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1031.03282245656</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>597.2570777219835</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>449.3439841395904</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>302.45403664168</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2579373565599</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>149.8982754122182</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>160.7422054838781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,16 +7205,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1522.21291626627</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
-        <v>2074.122646505557</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>530.3315352860773</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,22 +7424,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961526</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.15426255076</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790047</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2338.476105524075</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.063992790046</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>377.6556127449245</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>377.6556127449245</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-4.7828447756751e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,19 +8058,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.76488231024513</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14.25823202432855</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>129.4330134067488</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O6" t="n">
-        <v>255.8421700460949</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>35.91627445172429</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>138.9393975111054</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-7.6250157187155e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664529</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>104.7431111219901</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.6605885985412</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>47.21554925516918</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>99.26785128072171</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>15.00954930701842</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.533690297528779</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850953</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>4.715200669172049</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>793067.3743478794</v>
+        <v>793067.3743478793</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>793067.3743478793</v>
+        <v>793067.3743478792</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="F2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245457</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.7268316249</v>
@@ -26427,37 +26427,37 @@
         <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707371</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670738</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707365</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707371</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707395</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707323</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707337</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703291.91120257</v>
+        <v>-703291.9112025697</v>
       </c>
       <c r="C6" t="n">
+        <v>411459.8723733506</v>
+      </c>
+      <c r="D6" t="n">
         <v>411459.8723733504</v>
       </c>
-      <c r="D6" t="n">
-        <v>411459.8723733502</v>
-      </c>
       <c r="E6" t="n">
-        <v>10033.21881459466</v>
+        <v>9998.480889158847</v>
       </c>
       <c r="F6" t="n">
-        <v>517518.6604391402</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="G6" t="n">
-        <v>517518.6604391403</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="H6" t="n">
-        <v>517518.6604391405</v>
+        <v>517483.9225137045</v>
       </c>
       <c r="I6" t="n">
-        <v>517518.6604391402</v>
+        <v>517483.9225137047</v>
       </c>
       <c r="J6" t="n">
-        <v>349913.4826291577</v>
+        <v>349878.7447037222</v>
       </c>
       <c r="K6" t="n">
-        <v>517518.6604391401</v>
+        <v>517483.9225137047</v>
       </c>
       <c r="L6" t="n">
-        <v>517518.6604391402</v>
+        <v>517483.9225137047</v>
       </c>
       <c r="M6" t="n">
-        <v>384911.3667102137</v>
+        <v>384876.628784778</v>
       </c>
       <c r="N6" t="n">
-        <v>517518.6604391403</v>
+        <v>517483.9225137044</v>
       </c>
       <c r="O6" t="n">
-        <v>517518.6604391401</v>
+        <v>517483.9225137046</v>
       </c>
       <c r="P6" t="n">
-        <v>517518.6604391402</v>
+        <v>517483.9225137046</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241344</v>
@@ -26993,10 +26993,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>399.6424047783975</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>62.24326423680924</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>90.72047872978898</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>33.31413681975673</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>30.16629485832607</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.504184311611482</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>3.421142969613612</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>108.8400531838036</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>243.5075940840478</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>296.4835319615842</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>50.70941963095866</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>148.878841891109</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31039,34 +31039,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31075,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32549,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>270.9716933356906</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32786,13 +32786,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>198.5607970756955</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>447.1326187913569</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,22 +33266,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>481.4297026814658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>506.0735392239789</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>346.9084613860368</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197783</v>
       </c>
       <c r="P39" t="n">
-        <v>382.1329742631541</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,25 +34208,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>500.7380235181008</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.5996128485291</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>500.7380235181012</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.80623010675</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939915</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>232.35237855373</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>381.189564306369</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>316.0205096502337</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O6" t="n">
-        <v>591.2668520422178</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>222.5037706952091</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>530.1364971039794</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
@@ -35273,7 +35273,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558164</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36434,13 +36434,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>55.96455263125101</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>313.1582113770266</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>339.2956687594475</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>372.0991318096486</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>212.9340539717066</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753338</v>
       </c>
       <c r="P39" t="n">
-        <v>248.1585668488238</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,25 +37856,25 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>366.7636161037705</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625076</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>366.763616103771</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
